--- a/resources/tools/wordlist_E-J/lessons-3rd/lesson-11.xlsx
+++ b/resources/tools/wordlist_E-J/lessons-3rd/lesson-11.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1189,6 +1189,426 @@
         </is>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Both are fine.</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>どちらでもいいです。</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Same thing.</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>同じです。|おなじです。</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>More or less the same.</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>だいたい同じです。|だいたいおなじです。</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>A little different.</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ちょっと違います。|ちょっとちがいます。</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Can't use it.</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>使えません。|つかえません。</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>No good.</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>だめです。</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Raise your hand.</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>手をあげてください。|てをあげてください。</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Read it before coming to class.</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>読んできてください。|よんできてください。</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Hand in the homework.</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>宿題を出してください。|しゅくだいをだしてください。</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Open the book to page 10.</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>10ページを開いてください。|10ページをひらいてください。</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Close the textbook.</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>教科書を閉じてください。|きょうかしょをとじてください。</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Ask the person sitting next to you.</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>となりの人に聞いてください。|となりのひとにきいてください。</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Please stop.</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>やめてください。</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>That's it for today.</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>今日はこれで終わります。|きょうはこれでおわります。</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>deadline</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>しめきり</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>exercise</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>練習|れんしゅう</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>meaning</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>意味|いみ</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>pronunciation</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>発音|はつおん</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>grammar</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>文法|ぶんぽう</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>question</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>質問|しつもん</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>答|こたえ</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>example</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>例|れい</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>( ) (parenthesis)</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>かっこ</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>〇 (correct)</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>まる</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>✕ (wrong)</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ばつ</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>colloquial expression</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>くだけた言い方|くだけたいいかた</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>bookish expression</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>かたい言い方|かたいいいかた</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>polite expression</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ていねいな言い方|ていねいないいかた</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>dialect</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>方言|ほうげん</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>common language</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>共通語|きょうつうご</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>for example</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>たとえば</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>anything else</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ほかに</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>～番|～ばん</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>line number</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>～行目|～ぎょうめ</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>two people each</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>二人ずつ|ふたりずつ</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/resources/tools/wordlist_E-J/lessons-3rd/lesson-11.xlsx
+++ b/resources/tools/wordlist_E-J/lessons-3rd/lesson-11.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:B164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1609,6 +1609,786 @@
         </is>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>letter</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>手紙|てがみ</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>singer</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>歌手|かしゅ</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>hand</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>手|て</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>sign language</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>手話|しゅわ</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>good at</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>上手な|じょうずな</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>paper</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>紙|かみ</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Japanese paper</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>和紙|わし</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>cover page</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>表紙|ひょうし</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>origami</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>折り紙|おりがみ</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>to like</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>好きな|すきな</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>to love</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>大好きな|だいすきな</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>goodwill</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>好意|こうい</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>liking; taste</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>好み|このみ</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>favorite food</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>好物|こうぶつ</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>near; nearby</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>近く|ちかく</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>neighborhood</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>近所|きんじょ</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>recently</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>最近|さいきん</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>the Middle and Near East</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>中近東|ちゅうきんとう</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>cheerful; bright</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>明るい|あかるい</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>tomorrow</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>明日|あした</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>explanation</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>説明|せつめい</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>invention</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>発明|はつめい</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>civilization</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>文明|ぶんめい</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>hospital</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>病院|びょういん</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>illness</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>病気|びょうき</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>serious illness</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>重病|じゅうびょう</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>sudden illness</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>急病|きゅうびょう</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>graduate school</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>大学院|だいがくいん</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>beauty parlor</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>美容院|びよういん</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>movie</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>映画|えいが</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>movie theater</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>映画館|えいがかん</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>to be reflected</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>映る|うつる</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>painter</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>画家|がか</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>計画|けいかく</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>comic</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>漫画|まんが</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>to sing</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>歌う|うたう</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>song</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>歌|うた</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>singer</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>歌手|かしゅ</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>national anthem</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>国歌|こっか</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Kabuki</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>歌舞伎|かぶき</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>lyrics</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>歌詞|かし</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Kawaguchi City</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>川口市|かわぐちし</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>city hall</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>市役所|しやくしょ</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>mayor</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>市長|しちょう</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>市場|いちば</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>various places</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>いろいろな所|いろいろなところ</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>neighborhood</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>近所|きんじょ</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>台所|だいどころ</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>住所|じゅうしょ</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>to study</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>勉強する|べんきょうする</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>to try hard</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>勉める|つとめる</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>diligent</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>勤勉な|きんべんな</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>to study</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>勉強する|べんきょうする</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>strong</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>強い|つよい</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>obstinate</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>強情な|ごうじょうな</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>robbery</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>強盗|ごうとう</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>powerful</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>強力な|きょうりょくな</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>famous</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>有名な|ゆうめいな</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>toll; fee</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>有料|ゆうりょう</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>to exist</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>有る|ある</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>talented</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>有能な|ゆうのうな</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>travel</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>旅行|りょこう</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Japanese inn</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>旅館|りょかん</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>traveling alone</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>一人旅|ひとりたび</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>passport</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>旅券|りょけん</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/resources/tools/wordlist_E-J/lessons-3rd/lesson-11.xlsx
+++ b/resources/tools/wordlist_E-J/lessons-3rd/lesson-11.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2390,6 +2390,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons-3rd/lesson-11.xlsx
+++ b/resources/tools/wordlist_E-J/lessons-3rd/lesson-11.xlsx
@@ -1372,7 +1372,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>exercise</t>
+          <t>practice; (an) exercise</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
